--- a/output_summary_combined_models_interpretation.xlsx
+++ b/output_summary_combined_models_interpretation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
         <v>98.5</v>
       </c>
       <c r="D2" t="n">
-        <v>38.3</v>
+        <v>21.9</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -498,11 +498,11 @@
         <v>71.3</v>
       </c>
       <c r="D3" t="n">
-        <v>90.40000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Very specific, but misses ~29% of TB cases</t>
+          <t>Balanced, but with lower sensitivity</t>
         </is>
       </c>
     </row>
@@ -521,11 +521,11 @@
         <v>96.3</v>
       </c>
       <c r="D4" t="n">
-        <v>54.7</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sens still strong, but modest gain in specificity</t>
+          <t>Slightly under TPP of 70% specificity</t>
         </is>
       </c>
     </row>
@@ -544,57 +544,11 @@
         <v>64.09999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>94</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Even more specific, but sensitivity now 64%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Youden's J</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Parallel</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>94</v>
-      </c>
-      <c r="D6" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Most balanced combo — a strong candidate</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Youden's J</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Serial</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>57</v>
-      </c>
-      <c r="D7" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Near-perfect specificity, but misses 43%</t>
+          <t>Extremely specific but terrible sensitivity</t>
         </is>
       </c>
     </row>

--- a/output_summary_combined_models_interpretation.xlsx
+++ b/output_summary_combined_models_interpretation.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>98.5</v>
+        <v>99.3</v>
       </c>
       <c r="D2" t="n">
-        <v>21.9</v>
+        <v>18.9</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -495,10 +495,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>71.3</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>86.8</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>

--- a/output_summary_combined_models_interpretation.xlsx
+++ b/output_summary_combined_models_interpretation.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>99.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>18.9</v>
+        <v>13.2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -495,10 +495,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>73.59999999999999</v>
+        <v>39.4</v>
       </c>
       <c r="D3" t="n">
-        <v>86.09999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>96.3</v>
+        <v>85.5</v>
       </c>
       <c r="D4" t="n">
-        <v>65.59999999999999</v>
+        <v>66</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -541,10 +541,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64.09999999999999</v>
+        <v>31.5</v>
       </c>
       <c r="D5" t="n">
-        <v>96.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
